--- a/pur_doc/templates/cbd.xlsx
+++ b/pur_doc/templates/cbd.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenmi20\Desktop\CodingProject\00_git_reopsitory\PUR\pur_doc\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenmi20\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\IKQUBOC8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADABFB4E-129E-4C1A-9A39-9A1407E122B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="w6/Y8u2O5wlvfSe1hZXMRKTiKZbgjWHYPdXmg84MqC5IJGp6cRpIXnJngz5WNNmyOhFQEgJZxWeLHX5FSazzoA==" workbookSaltValue="F3LP93ws7+p76tgxg47XTw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9487031A-8ACD-4D7C-800B-173333DA88D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="GiicmLIxfxkHDqu8Qf+ELSpwOLqLmXSND9402udUuQrirhwlK7eAVfDfWCK3tQmyMlyPJ7fRI+SmES34GmU5cQ==" workbookSaltValue="s+yvlm9NILF7cXbmLlqKAg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11925" tabRatio="552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,9 +297,6 @@
     <t>Pallet Number / Trip</t>
   </si>
   <si>
-    <t>E Box</t>
-  </si>
-  <si>
     <t>Sub Total Packaging costs :</t>
   </si>
   <si>
@@ -824,9 +821,6 @@
     <t>transport_cost</t>
   </si>
   <si>
-    <t>sop_date</t>
-  </si>
-  <si>
     <t>Setup costs/ Second process (Out sourcing)</t>
   </si>
   <si>
@@ -869,6 +863,12 @@
   </si>
   <si>
     <t>Total Quick saving [CNY]</t>
+  </si>
+  <si>
+    <t>template_version</t>
+  </si>
+  <si>
+    <t>V1.01</t>
   </si>
 </sst>
 </file>
@@ -887,7 +887,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="m/d/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1032,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1747,7 +1754,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2410,6 +2417,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
       <protection locked="0"/>
@@ -2516,10 +2536,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2586,13 +2602,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>718457</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2622,8 +2638,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11500757" y="6350"/>
-          <a:ext cx="1186543" cy="524510"/>
+          <a:off x="11176907" y="15875"/>
+          <a:ext cx="1138918" cy="539750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,7 +2941,7 @@
   <dimension ref="A1:AZ102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3384,25 +3400,27 @@
     <col min="16145" max="16145" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
-      <c r="A1" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="226"/>
-      <c r="P1" s="226"/>
+    <row r="1" spans="1:52" ht="15" customHeight="1">
+      <c r="A1" s="200" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
+      <c r="H1" s="201"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="201"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="201"/>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
       <c r="Q1" s="91"/>
       <c r="R1" s="91"/>
       <c r="S1" s="91"/>
@@ -3441,22 +3459,22 @@
       <c r="AZ1" s="91"/>
     </row>
     <row r="2" spans="1:52">
-      <c r="A2" s="226"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="226"/>
-      <c r="H2" s="226"/>
-      <c r="I2" s="226"/>
-      <c r="J2" s="226"/>
-      <c r="K2" s="226"/>
-      <c r="L2" s="226"/>
-      <c r="M2" s="226"/>
-      <c r="N2" s="226"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="226"/>
+      <c r="A2" s="199"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="201"/>
+      <c r="F2" s="201"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="201"/>
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="201"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="201"/>
+      <c r="P2" s="201"/>
       <c r="Q2" s="91"/>
       <c r="R2" s="91"/>
       <c r="S2" s="91"/>
@@ -3495,22 +3513,22 @@
       <c r="AZ2" s="91"/>
     </row>
     <row r="3" spans="1:52">
-      <c r="A3" s="226"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="226"/>
-      <c r="H3" s="226"/>
-      <c r="I3" s="226"/>
-      <c r="J3" s="226"/>
-      <c r="K3" s="226"/>
-      <c r="L3" s="226"/>
-      <c r="M3" s="226"/>
-      <c r="N3" s="226"/>
-      <c r="O3" s="226"/>
-      <c r="P3" s="226"/>
+      <c r="A3" s="199"/>
+      <c r="B3" s="202"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="202"/>
       <c r="Q3" s="91"/>
       <c r="R3" s="91"/>
       <c r="S3" s="91"/>
@@ -3604,28 +3622,26 @@
     </row>
     <row r="5" spans="1:52" ht="25.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="218" t="s">
+      <c r="B5" s="222" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="228"/>
-      <c r="E5" s="229"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="232"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="222" t="s">
+      <c r="G5" s="226" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="222"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="230"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="230"/>
+      <c r="H5" s="226"/>
+      <c r="I5" s="233"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
       <c r="M5" s="1"/>
       <c r="N5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="85">
-        <v>1</v>
-      </c>
+      <c r="O5" s="85"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="91"/>
       <c r="R5" s="91"/>
@@ -3720,12 +3736,12 @@
     </row>
     <row r="7" spans="1:52" ht="46.9" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="225"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="221"/>
+      <c r="C7" s="229"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="225"/>
       <c r="F7" s="1"/>
       <c r="G7" s="9" t="s">
         <v>5</v>
@@ -3734,7 +3750,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="9"/>
@@ -3836,17 +3852,17 @@
     </row>
     <row r="9" spans="1:52" ht="25.5">
       <c r="A9" s="9"/>
-      <c r="B9" s="218" t="s">
+      <c r="B9" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="219"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="221"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="225"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="222" t="s">
+      <c r="G9" s="226" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="222"/>
+      <c r="H9" s="226"/>
       <c r="I9" s="14"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9" t="s">
@@ -3952,12 +3968,12 @@
     </row>
     <row r="11" spans="1:52" ht="38.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="218" t="s">
+      <c r="B11" s="222" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="219"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="221"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="225"/>
       <c r="F11" s="1"/>
       <c r="G11" s="9" t="s">
         <v>12</v>
@@ -3975,7 +3991,7 @@
       </c>
       <c r="O11" s="198">
         <f ca="1">NOW()</f>
-        <v>43711.653956365742</v>
+        <v>43718.402385185182</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="91"/>
@@ -4323,9 +4339,9 @@
     </row>
     <row r="17" spans="1:52">
       <c r="A17" s="1"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="226"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -4377,23 +4393,23 @@
     </row>
     <row r="18" spans="1:52" ht="24" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="222" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
+      <c r="C18" s="226"/>
+      <c r="D18" s="226"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="227"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="222" t="s">
+      <c r="I18" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="222"/>
-      <c r="K18" s="222"/>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="212"/>
+      <c r="M18" s="212"/>
+      <c r="N18" s="212"/>
       <c r="O18" s="1"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="91"/>
@@ -4489,23 +4505,23 @@
     </row>
     <row r="20" spans="1:52">
       <c r="A20" s="1"/>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="210"/>
-      <c r="L20" s="210"/>
-      <c r="M20" s="210"/>
-      <c r="N20" s="210"/>
-      <c r="O20" s="210"/>
-      <c r="P20" s="211"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="214"/>
+      <c r="I20" s="214"/>
+      <c r="J20" s="214"/>
+      <c r="K20" s="214"/>
+      <c r="L20" s="214"/>
+      <c r="M20" s="214"/>
+      <c r="N20" s="214"/>
+      <c r="O20" s="214"/>
+      <c r="P20" s="215"/>
       <c r="Q20" s="91"/>
       <c r="R20" s="91"/>
       <c r="S20" s="91"/>
@@ -4545,21 +4561,21 @@
     </row>
     <row r="21" spans="1:52">
       <c r="A21" s="1"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
-      <c r="J21" s="213"/>
-      <c r="K21" s="213"/>
-      <c r="L21" s="213"/>
-      <c r="M21" s="213"/>
-      <c r="N21" s="213"/>
-      <c r="O21" s="213"/>
-      <c r="P21" s="214"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="217"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="217"/>
+      <c r="F21" s="217"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="217"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="218"/>
       <c r="Q21" s="91"/>
       <c r="R21" s="91"/>
       <c r="S21" s="91"/>
@@ -4599,21 +4615,21 @@
     </row>
     <row r="22" spans="1:52">
       <c r="A22" s="1"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="216"/>
-      <c r="G22" s="216"/>
-      <c r="H22" s="216"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216"/>
-      <c r="N22" s="216"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="217"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="220"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
+      <c r="K22" s="220"/>
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="221"/>
       <c r="Q22" s="91"/>
       <c r="R22" s="91"/>
       <c r="S22" s="91"/>
@@ -4776,13 +4792,13 @@
         <v>24</v>
       </c>
       <c r="F25" s="93" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G25" s="93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H25" s="93" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I25" s="93" t="s">
         <v>25</v>
@@ -4800,10 +4816,10 @@
         <v>29</v>
       </c>
       <c r="N25" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="O25" s="33" t="s">
         <v>135</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>136</v>
       </c>
       <c r="P25" s="95" t="s">
         <v>30</v>
@@ -5610,7 +5626,7 @@
         <v>41</v>
       </c>
       <c r="K38" s="116" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L38" s="114" t="s">
         <v>42</v>
@@ -5619,10 +5635,10 @@
         <v>28</v>
       </c>
       <c r="N38" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O38" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P38" s="95" t="s">
         <v>30</v>
@@ -6376,7 +6392,7 @@
     <row r="50" spans="1:52" ht="15.75">
       <c r="A50" s="91"/>
       <c r="B50" s="89" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C50" s="90"/>
       <c r="D50" s="90"/>
@@ -6447,7 +6463,7 @@
         <v>45</v>
       </c>
       <c r="G51" s="116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H51" s="115" t="s">
         <v>40</v>
@@ -6456,7 +6472,7 @@
         <v>47</v>
       </c>
       <c r="J51" s="116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K51" s="93" t="s">
         <v>49</v>
@@ -6465,13 +6481,13 @@
         <v>50</v>
       </c>
       <c r="M51" s="94" t="s">
+        <v>140</v>
+      </c>
+      <c r="N51" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="N51" s="34" t="s">
+      <c r="O51" s="34" t="s">
         <v>142</v>
-      </c>
-      <c r="O51" s="34" t="s">
-        <v>143</v>
       </c>
       <c r="P51" s="95" t="s">
         <v>30</v>
@@ -7441,7 +7457,7 @@
         <v>58</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H66" s="95" t="s">
         <v>30</v>
@@ -7461,7 +7477,7 @@
         <v>61</v>
       </c>
       <c r="O66" s="34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P66" s="95" t="s">
         <v>30</v>
@@ -7508,12 +7524,8 @@
       <c r="B67" s="96">
         <v>1</v>
       </c>
-      <c r="C67" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D67" s="101">
-        <v>1</v>
-      </c>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
       <c r="E67" s="97"/>
       <c r="F67" s="97"/>
       <c r="G67" s="185" t="str">
@@ -7577,9 +7589,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="101"/>
-      <c r="D68" s="101">
-        <v>1</v>
-      </c>
+      <c r="D68" s="101"/>
       <c r="E68" s="97"/>
       <c r="F68" s="97"/>
       <c r="G68" s="185" t="str">
@@ -7643,9 +7653,7 @@
         <v>3</v>
       </c>
       <c r="C69" s="101"/>
-      <c r="D69" s="101">
-        <v>1</v>
-      </c>
+      <c r="D69" s="101"/>
       <c r="E69" s="97"/>
       <c r="F69" s="97"/>
       <c r="G69" s="185" t="str">
@@ -7709,9 +7717,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="101"/>
-      <c r="D70" s="101">
-        <v>1</v>
-      </c>
+      <c r="D70" s="101"/>
       <c r="E70" s="97"/>
       <c r="F70" s="97"/>
       <c r="G70" s="185" t="str">
@@ -7775,9 +7781,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="128"/>
-      <c r="D71" s="128">
-        <v>1</v>
-      </c>
+      <c r="D71" s="128"/>
       <c r="E71" s="128"/>
       <c r="F71" s="128"/>
       <c r="G71" s="185" t="str">
@@ -7841,9 +7845,7 @@
         <v>6</v>
       </c>
       <c r="C72" s="105"/>
-      <c r="D72" s="105">
-        <v>1</v>
-      </c>
+      <c r="D72" s="105"/>
       <c r="E72" s="105"/>
       <c r="F72" s="105"/>
       <c r="G72" s="185" t="str">
@@ -7908,7 +7910,7 @@
       <c r="D73" s="136"/>
       <c r="E73" s="136"/>
       <c r="F73" s="126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73" s="184">
         <f>SUM(G67:G72)</f>
@@ -7921,7 +7923,7 @@
       <c r="L73" s="136"/>
       <c r="M73" s="125"/>
       <c r="N73" s="126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O73" s="184">
         <f>SUM(O67:O72)</f>
@@ -8091,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O76" s="186">
         <f>O36+O49+N62+O63+G73+O73</f>
@@ -8247,7 +8249,7 @@
       <c r="A79" s="91"/>
       <c r="B79" s="91"/>
       <c r="C79" s="141" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D79" s="90"/>
       <c r="E79" s="90"/>
@@ -8255,7 +8257,7 @@
         <v>15</v>
       </c>
       <c r="G79" s="151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H79" s="91"/>
       <c r="I79" s="91"/>
@@ -8267,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="N79" s="151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O79" s="186">
         <f>O76*F79/100</f>
@@ -8369,7 +8371,7 @@
       <c r="A81" s="91"/>
       <c r="B81" s="91"/>
       <c r="C81" s="141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="90"/>
       <c r="E81" s="90"/>
@@ -8377,7 +8379,7 @@
         <v>5</v>
       </c>
       <c r="G81" s="151" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H81" s="91"/>
       <c r="I81" s="91"/>
@@ -8389,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="N81" s="151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O81" s="186">
         <f>O76*F81/100</f>
@@ -8491,7 +8493,7 @@
       <c r="A83" s="91"/>
       <c r="B83" s="91"/>
       <c r="C83" s="156" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D83" s="90"/>
       <c r="E83" s="90"/>
@@ -8509,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="N83" s="151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O83" s="152">
         <f>F83</f>
@@ -8665,7 +8667,7 @@
       <c r="A86" s="91"/>
       <c r="B86" s="91"/>
       <c r="C86" s="141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="90"/>
       <c r="E86" s="90"/>
@@ -8673,20 +8675,20 @@
         <v>4</v>
       </c>
       <c r="G86" s="158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H86" s="159">
         <v>4</v>
       </c>
       <c r="I86" s="158" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J86" s="90"/>
       <c r="K86" s="90"/>
       <c r="L86" s="123"/>
       <c r="M86" s="110"/>
       <c r="N86" s="160" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O86" s="161">
         <f>O76+O79+O81+O83</f>
@@ -8788,7 +8790,7 @@
       <c r="A88" s="91"/>
       <c r="B88" s="91"/>
       <c r="C88" s="141" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D88" s="90"/>
       <c r="E88" s="90"/>
@@ -8796,7 +8798,7 @@
         <v>2</v>
       </c>
       <c r="G88" s="151" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H88" s="90"/>
       <c r="I88" s="90"/>
@@ -8805,7 +8807,7 @@
       <c r="L88" s="162"/>
       <c r="M88" s="163"/>
       <c r="N88" s="164" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O88" s="165">
         <f>O86*100</f>
@@ -8906,21 +8908,21 @@
     <row r="90" spans="1:52" ht="15" customHeight="1">
       <c r="A90" s="91"/>
       <c r="B90" s="91"/>
-      <c r="C90" s="199" t="s">
-        <v>76</v>
-      </c>
-      <c r="D90" s="200"/>
-      <c r="E90" s="200"/>
-      <c r="F90" s="200"/>
-      <c r="G90" s="200"/>
-      <c r="H90" s="200"/>
-      <c r="I90" s="201"/>
+      <c r="C90" s="203" t="s">
+        <v>75</v>
+      </c>
+      <c r="D90" s="204"/>
+      <c r="E90" s="204"/>
+      <c r="F90" s="204"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
+      <c r="I90" s="205"/>
       <c r="J90" s="90"/>
       <c r="K90" s="136"/>
       <c r="L90" s="166"/>
       <c r="M90" s="167"/>
       <c r="N90" s="169" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O90" s="170"/>
       <c r="P90" s="91"/>
@@ -8964,13 +8966,13 @@
     <row r="91" spans="1:52" ht="15" customHeight="1">
       <c r="A91" s="91"/>
       <c r="B91" s="91"/>
-      <c r="C91" s="202"/>
-      <c r="D91" s="203"/>
-      <c r="E91" s="203"/>
-      <c r="F91" s="203"/>
-      <c r="G91" s="203"/>
-      <c r="H91" s="203"/>
-      <c r="I91" s="204"/>
+      <c r="C91" s="206"/>
+      <c r="D91" s="207"/>
+      <c r="E91" s="207"/>
+      <c r="F91" s="207"/>
+      <c r="G91" s="207"/>
+      <c r="H91" s="207"/>
+      <c r="I91" s="208"/>
       <c r="J91" s="90"/>
       <c r="K91" s="136"/>
       <c r="L91" s="166"/>
@@ -9018,19 +9020,19 @@
     <row r="92" spans="1:52" ht="15" customHeight="1">
       <c r="A92" s="91"/>
       <c r="B92" s="91"/>
-      <c r="C92" s="202"/>
-      <c r="D92" s="203"/>
-      <c r="E92" s="203"/>
-      <c r="F92" s="203"/>
-      <c r="G92" s="203"/>
-      <c r="H92" s="203"/>
-      <c r="I92" s="204"/>
+      <c r="C92" s="206"/>
+      <c r="D92" s="207"/>
+      <c r="E92" s="207"/>
+      <c r="F92" s="207"/>
+      <c r="G92" s="207"/>
+      <c r="H92" s="207"/>
+      <c r="I92" s="208"/>
       <c r="J92" s="136"/>
       <c r="K92" s="173"/>
       <c r="L92" s="166"/>
       <c r="M92" s="167"/>
       <c r="N92" s="169" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O92" s="170"/>
       <c r="P92" s="91"/>
@@ -9074,13 +9076,13 @@
     <row r="93" spans="1:52">
       <c r="A93" s="91"/>
       <c r="B93" s="91"/>
-      <c r="C93" s="202"/>
-      <c r="D93" s="203"/>
-      <c r="E93" s="203"/>
-      <c r="F93" s="203"/>
-      <c r="G93" s="203"/>
-      <c r="H93" s="203"/>
-      <c r="I93" s="204"/>
+      <c r="C93" s="206"/>
+      <c r="D93" s="207"/>
+      <c r="E93" s="207"/>
+      <c r="F93" s="207"/>
+      <c r="G93" s="207"/>
+      <c r="H93" s="207"/>
+      <c r="I93" s="208"/>
       <c r="J93" s="174"/>
       <c r="K93" s="91"/>
       <c r="L93" s="166"/>
@@ -9128,19 +9130,19 @@
     <row r="94" spans="1:52">
       <c r="A94" s="91"/>
       <c r="B94" s="91"/>
-      <c r="C94" s="202"/>
-      <c r="D94" s="203"/>
-      <c r="E94" s="203"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
-      <c r="I94" s="204"/>
+      <c r="C94" s="206"/>
+      <c r="D94" s="207"/>
+      <c r="E94" s="207"/>
+      <c r="F94" s="207"/>
+      <c r="G94" s="207"/>
+      <c r="H94" s="207"/>
+      <c r="I94" s="208"/>
       <c r="J94" s="91"/>
       <c r="K94" s="91"/>
       <c r="L94" s="175"/>
       <c r="M94" s="171"/>
       <c r="N94" s="169" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O94" s="170"/>
       <c r="P94" s="91"/>
@@ -9184,13 +9186,13 @@
     <row r="95" spans="1:52" ht="15.75" thickBot="1">
       <c r="A95" s="91"/>
       <c r="B95" s="91"/>
-      <c r="C95" s="205"/>
-      <c r="D95" s="206"/>
-      <c r="E95" s="206"/>
-      <c r="F95" s="206"/>
-      <c r="G95" s="206"/>
-      <c r="H95" s="206"/>
-      <c r="I95" s="207"/>
+      <c r="C95" s="209"/>
+      <c r="D95" s="210"/>
+      <c r="E95" s="210"/>
+      <c r="F95" s="210"/>
+      <c r="G95" s="210"/>
+      <c r="H95" s="210"/>
+      <c r="I95" s="211"/>
       <c r="J95" s="91"/>
       <c r="K95" s="91"/>
       <c r="L95" s="175"/>
@@ -9250,7 +9252,7 @@
       <c r="L96" s="175"/>
       <c r="M96" s="171"/>
       <c r="N96" s="169" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O96" s="170"/>
       <c r="P96" s="91"/>
@@ -9295,7 +9297,7 @@
       <c r="A97" s="91"/>
       <c r="B97" s="91"/>
       <c r="C97" s="176" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D97" s="176"/>
       <c r="E97" s="91"/>
@@ -9362,7 +9364,7 @@
       <c r="L98" s="175"/>
       <c r="M98" s="171"/>
       <c r="N98" s="169" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O98" s="170">
         <f>SUM(O88*E16+O90*F16+O92*G16+O94*H16+O96*I16+O96*J16+O96*SUM(K16:O16))/100</f>
@@ -9475,7 +9477,7 @@
       <c r="L100" s="177"/>
       <c r="M100" s="178"/>
       <c r="N100" s="179" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O100" s="180">
         <f>O98*F88/100</f>
@@ -9628,15 +9630,12 @@
       <c r="AZ102" s="91"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="/3rrnny8buLZrl/k74OqEwdPbf0VDqUW28mIzjJRohspSrEIsMHoii139q4D4FdmKoFm4p1OQaMZrhiWdeLMPA==" saltValue="b0VCN312KzkMvFTWRsUegQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="dTJ8/BHrQ46E+K50HVDyIwEbMoifmyzkBnOZW/t6A+fCsvvFvL8VMtxpcJH/v1I8EyMaPlZiava7Fw18YcbYRw==" saltValue="NsKc/XXCqncYYigXDs+5Cw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="19">
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A1:P3"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:L5"/>
+    <mergeCell ref="B1:P3"/>
     <mergeCell ref="C90:I95"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="B20:P22"/>
@@ -9649,6 +9648,9 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D15:O15" xr:uid="{6A04D8BF-3BD2-4E93-88B1-98F3A705DBBF}">
@@ -9703,7 +9705,7 @@
   <dimension ref="A1:AB8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -9731,94 +9733,94 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="F1" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="74" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="O1" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q1" s="74" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="74" t="s">
+      <c r="R1" s="74" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="74" t="s">
-        <v>147</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>212</v>
-      </c>
-      <c r="K1" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="74" t="s">
+      <c r="S1" s="74" t="s">
+        <v>217</v>
+      </c>
+      <c r="T1" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="U1" s="74" t="s">
+        <v>220</v>
+      </c>
+      <c r="V1" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="W1" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="X1" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y1" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z1" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA1" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB1" s="74" t="s">
         <v>153</v>
-      </c>
-      <c r="O1" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q1" s="74" t="s">
-        <v>217</v>
-      </c>
-      <c r="R1" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="S1" s="74" t="s">
-        <v>219</v>
-      </c>
-      <c r="T1" s="74" t="s">
-        <v>220</v>
-      </c>
-      <c r="U1" s="74" t="s">
-        <v>222</v>
-      </c>
-      <c r="V1" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="W1" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="X1" s="74" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y1" s="74" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z1" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA1" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB1" s="74" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="76" t="str">
         <f ca="1">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>ERYUYW</v>
+        <v>TBTYUH</v>
       </c>
       <c r="B2" s="78">
         <f>'CBD Summary'!I9</f>
@@ -9850,11 +9852,11 @@
       </c>
       <c r="I2" s="197">
         <f ca="1">'CBD Summary'!O11</f>
-        <v>43711.653956365742</v>
-      </c>
-      <c r="J2" s="75">
-        <f>'CBD Summary'!I11</f>
-        <v>0</v>
+        <v>43718.402385185182</v>
+      </c>
+      <c r="J2" s="75" t="str">
+        <f>'CBD Summary'!A1</f>
+        <v>V1.01</v>
       </c>
       <c r="K2" s="77">
         <f>'CBD Summary'!D11</f>
@@ -9930,12 +9932,12 @@
       </c>
     </row>
     <row r="8" spans="1:28">
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
+      <c r="E8" s="234"/>
+      <c r="F8" s="234"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="234"/>
+      <c r="I8" s="234"/>
+      <c r="J8" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9955,7 +9957,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H31:H32"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
@@ -9977,67 +9979,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>150</v>
-      </c>
       <c r="F1" s="74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H1" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="73" t="s">
+      <c r="L1" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>167</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="O1" s="73" t="s">
+      <c r="P1" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="Q1" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>172</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="S1" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="T1" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="U1" s="73" t="s">
         <v>175</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -10915,7 +10917,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H31:H32"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -10943,67 +10945,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="K1" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="74" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="74" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" s="73" t="s">
+      <c r="L1" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q1" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="O1" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="P1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="73" t="s">
+      <c r="S1" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="R1" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" s="73" t="s">
+      <c r="T1" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="73" t="s">
         <v>191</v>
-      </c>
-      <c r="T1" s="73" t="s">
-        <v>202</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -11216,7 +11218,7 @@
         <v/>
       </c>
       <c r="J4" s="77" t="str">
-        <f>IF($A4="","",'CBD Summary'!F41)</f>
+        <f>IF($A4="","",'CBD Summary'!D41)</f>
         <v/>
       </c>
       <c r="K4" s="77" t="str">
@@ -11224,7 +11226,7 @@
         <v/>
       </c>
       <c r="L4" s="77" t="str">
-        <f>IF($A4="","",'CBD Summary'!#REF!)</f>
+        <f>IF($A4="","",'CBD Summary'!F41)</f>
         <v/>
       </c>
       <c r="M4" s="82" t="str">
@@ -11881,7 +11883,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H31:H32"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -11911,67 +11913,67 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>150</v>
-      </c>
       <c r="F1" s="74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="73" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="73" t="s">
+        <v>185</v>
+      </c>
+      <c r="M1" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="73" t="s">
+      <c r="N1" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="O1" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="P1" s="73" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="73" t="s">
-        <v>195</v>
-      </c>
-      <c r="N1" s="73" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="73" t="s">
+      <c r="R1" s="73" t="s">
         <v>197</v>
       </c>
-      <c r="P1" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q1" s="73" t="s">
-        <v>187</v>
-      </c>
-      <c r="R1" s="73" t="s">
+      <c r="S1" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="T1" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="S1" s="73" t="s">
-        <v>201</v>
-      </c>
-      <c r="T1" s="73" t="s">
+      <c r="U1" s="73" t="s">
         <v>199</v>
-      </c>
-      <c r="U1" s="73" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -12871,43 +12873,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>150</v>
-      </c>
       <c r="F1" s="74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="J1" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="73" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="73" t="s">
         <v>203</v>
       </c>
-      <c r="J1" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="73" t="s">
+      <c r="M1" s="73" t="s">
         <v>204</v>
-      </c>
-      <c r="M1" s="73" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -13274,40 +13276,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>150</v>
-      </c>
       <c r="F1" s="74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G1" s="74" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I1" s="73" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="73" t="s">
         <v>208</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="K1" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="73" t="s">
+      <c r="L1" s="73" t="s">
         <v>210</v>
-      </c>
-      <c r="L1" s="73" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -13706,68 +13708,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:74" s="35" customFormat="1" ht="24.75" thickBot="1">
-      <c r="K1" s="234" t="s">
+      <c r="K1" s="237" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="239"/>
+      <c r="W1" s="237" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="235"/>
-      <c r="M1" s="235"/>
-      <c r="N1" s="235"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="235"/>
-      <c r="S1" s="235"/>
-      <c r="T1" s="235"/>
-      <c r="U1" s="235"/>
-      <c r="V1" s="236"/>
-      <c r="W1" s="234" t="s">
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
+      <c r="AA1" s="238"/>
+      <c r="AB1" s="238"/>
+      <c r="AC1" s="238"/>
+      <c r="AD1" s="238"/>
+      <c r="AE1" s="238"/>
+      <c r="AF1" s="238"/>
+      <c r="AG1" s="239"/>
+      <c r="AH1" s="235" t="s">
         <v>84</v>
       </c>
-      <c r="X1" s="235"/>
-      <c r="Y1" s="235"/>
-      <c r="Z1" s="235"/>
-      <c r="AA1" s="235"/>
-      <c r="AB1" s="235"/>
-      <c r="AC1" s="235"/>
-      <c r="AD1" s="235"/>
-      <c r="AE1" s="235"/>
-      <c r="AF1" s="235"/>
-      <c r="AG1" s="236"/>
-      <c r="AH1" s="232" t="s">
+      <c r="AI1" s="240"/>
+      <c r="AJ1" s="240"/>
+      <c r="AK1" s="240"/>
+      <c r="AL1" s="240"/>
+      <c r="AM1" s="236"/>
+      <c r="AN1" s="237" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="237"/>
-      <c r="AJ1" s="237"/>
-      <c r="AK1" s="237"/>
-      <c r="AL1" s="237"/>
-      <c r="AM1" s="233"/>
-      <c r="AN1" s="234" t="s">
+      <c r="AO1" s="238"/>
+      <c r="AP1" s="238"/>
+      <c r="AQ1" s="238"/>
+      <c r="AR1" s="239"/>
+      <c r="AS1" s="235" t="s">
         <v>86</v>
       </c>
-      <c r="AO1" s="235"/>
-      <c r="AP1" s="235"/>
-      <c r="AQ1" s="235"/>
-      <c r="AR1" s="236"/>
-      <c r="AS1" s="232" t="s">
+      <c r="AT1" s="240"/>
+      <c r="AU1" s="240"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="AT1" s="237"/>
-      <c r="AU1" s="237"/>
-      <c r="AV1" s="233"/>
-      <c r="AW1" s="232" t="s">
+      <c r="AX1" s="240"/>
+      <c r="AY1" s="236"/>
+      <c r="AZ1" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="AX1" s="237"/>
-      <c r="AY1" s="233"/>
-      <c r="AZ1" s="232" t="s">
+      <c r="BA1" s="236"/>
+      <c r="BB1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="BA1" s="233"/>
-      <c r="BB1" s="36" t="s">
+      <c r="BI1" s="37" t="s">
         <v>90</v>
-      </c>
-      <c r="BI1" s="37" t="s">
-        <v>91</v>
       </c>
       <c r="BJ1" s="38">
         <f>'CBD Summary'!E15</f>
@@ -13814,33 +13816,33 @@
         <v>2030</v>
       </c>
       <c r="BU1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="BV1" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="BV1" s="38" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:74" s="57" customFormat="1" ht="48">
       <c r="A2" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B2" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="39" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G2" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H2" s="40" t="s">
         <v>13</v>
@@ -13849,43 +13851,43 @@
         <v>44</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K2" s="43" t="s">
         <v>22</v>
       </c>
       <c r="L2" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="N2" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="O2" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="P2" s="43" t="s">
         <v>101</v>
-      </c>
-      <c r="P2" s="43" t="s">
-        <v>102</v>
       </c>
       <c r="Q2" s="43" t="s">
         <v>26</v>
       </c>
       <c r="R2" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="S2" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="T2" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="T2" s="44" t="s">
-        <v>105</v>
-      </c>
       <c r="U2" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="V2" s="69" t="s">
         <v>129</v>
-      </c>
-      <c r="V2" s="69" t="s">
-        <v>130</v>
       </c>
       <c r="W2" s="43" t="s">
         <v>34</v>
@@ -13894,7 +13896,7 @@
         <v>35</v>
       </c>
       <c r="Y2" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z2" s="43" t="s">
         <v>37</v>
@@ -13903,25 +13905,25 @@
         <v>42</v>
       </c>
       <c r="AB2" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC2" s="43" t="s">
         <v>28</v>
       </c>
       <c r="AD2" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE2" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="AE2" s="47" t="s">
-        <v>132</v>
       </c>
       <c r="AF2" s="47" t="s">
         <v>40</v>
       </c>
       <c r="AG2" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH2" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AI2" s="50" t="s">
         <v>46</v>
@@ -13936,7 +13938,7 @@
         <v>48</v>
       </c>
       <c r="AM2" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AN2" s="49" t="s">
         <v>55</v>
@@ -13951,58 +13953,58 @@
         <v>58</v>
       </c>
       <c r="AR2" s="70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS2" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT2" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="AT2" s="52" t="s">
+      <c r="AU2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AU2" s="52" t="s">
+      <c r="AV2" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AV2" s="51" t="s">
+      <c r="AW2" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AW2" s="52" t="s">
+      <c r="AX2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AY2" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ2" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="AY2" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ2" s="52" t="s">
+      <c r="BA2" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="BA2" s="52" t="s">
+      <c r="BB2" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="BB2" s="53" t="s">
+      <c r="BC2" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="BC2" s="54" t="s">
+      <c r="BD2" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="BD2" s="54" t="s">
+      <c r="BE2" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="BE2" s="54" t="s">
+      <c r="BF2" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="BF2" s="54" t="s">
+      <c r="BG2" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="BG2" s="54" t="s">
+      <c r="BH2" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI2" s="55" t="s">
         <v>123</v>
-      </c>
-      <c r="BH2" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI2" s="55" t="s">
-        <v>124</v>
       </c>
       <c r="BJ2" s="56">
         <f>'CBD Summary'!E16</f>
@@ -14084,7 +14086,7 @@
       </c>
       <c r="G3" s="60">
         <f ca="1">'CBD Summary'!O11</f>
-        <v>43711.653956365742</v>
+        <v>43718.402385185182</v>
       </c>
       <c r="H3" s="60">
         <f>'CBD Summary'!L11</f>
@@ -14214,13 +14216,13 @@
         <f>SUMIF('CBD Summary'!C52,"set up",'CBD Summary'!N52)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="63" t="str">
+      <c r="AN3" s="63">
         <f>'CBD Summary'!C67</f>
-        <v>E Box</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="63">
         <f>'CBD Summary'!D67</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="63">
         <f>'CBD Summary'!E67</f>
@@ -14418,7 +14420,7 @@
       </c>
       <c r="AO4" s="63">
         <f>'CBD Summary'!D68</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="63">
         <f>'CBD Summary'!E68</f>
@@ -14587,7 +14589,7 @@
       </c>
       <c r="AO5" s="63">
         <f>'CBD Summary'!D69</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="63">
         <f>'CBD Summary'!E69</f>
@@ -14756,7 +14758,7 @@
       </c>
       <c r="AO6" s="63">
         <f>'CBD Summary'!D70</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP6" s="63">
         <f>'CBD Summary'!E70</f>
@@ -14925,7 +14927,7 @@
       </c>
       <c r="AO7" s="63">
         <f>'CBD Summary'!D71</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="63">
         <f>'CBD Summary'!E71</f>
@@ -15094,7 +15096,7 @@
       </c>
       <c r="AO8" s="63">
         <f>'CBD Summary'!D72</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="63">
         <f>'CBD Summary'!E72</f>
@@ -15715,7 +15717,7 @@
     </row>
     <row r="15" spans="1:74" s="65" customFormat="1">
       <c r="B15" s="65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K15" s="66"/>
       <c r="L15" s="66"/>
